--- a/figures/SlidingLinVDP with NUM_TRAJ:1000.xlsx
+++ b/figures/SlidingLinVDP with NUM_TRAJ:1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,55 +434,10 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Trial 2</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
-        <is>
-          <t>Trial 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Trial 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Trial 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Trial 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Trial 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Trial 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Trial 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Trial 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
         <is>
           <t>Stdev</t>
         </is>
@@ -490,6 +445,110 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
+        <is>
+          <t>SlidingLin with Window Size:20</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.22132138585457</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(B2:B2)</f>
+        <v/>
+      </c>
+      <c r="D2">
+        <f>STDEV(B2:B2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SlidingLin with Window Size:15</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>113.4426791493449</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(B3:B3)</f>
+        <v/>
+      </c>
+      <c r="D3">
+        <f>STDEV(B3:B3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SlidingLin with Window Size:10</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4020.192172002387</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE(B4:B4)</f>
+        <v/>
+      </c>
+      <c r="D4">
+        <f>STDEV(B4:B4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SlidingLin with Window Size:5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>821473477.520296</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(B6:B6)</f>
+        <v/>
+      </c>
+      <c r="D6">
+        <f>STDEV(B6:B6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SlidingLin with Window Size:4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>133.6683580942512</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(B7:B7)</f>
+        <v/>
+      </c>
+      <c r="D7">
+        <f>STDEV(B7:B7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SlidingLin with Window Size:3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SlidingLin with Window Size:2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>SlidingLin with Window Size:1</t>
         </is>
